--- a/results/mp/logistic/corona/confidence/42/desired-masking-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/desired-masking-0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="79">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,52 +43,61 @@
     <t>war</t>
   </si>
   <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
     <t>die</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
     <t>crisis</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crude</t>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>shit</t>
   </si>
   <si>
     <t>falling</t>
   </si>
   <si>
+    <t>fears</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
     <t>drop</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
     <t>no</t>
   </si>
   <si>
+    <t>cut</t>
+  </si>
+  <si>
     <t>avoid</t>
   </si>
   <si>
+    <t>emergency</t>
+  </si>
+  <si>
     <t>lower</t>
   </si>
   <si>
-    <t>emergency</t>
+    <t>fight</t>
   </si>
   <si>
     <t>empty</t>
@@ -115,6 +124,12 @@
     <t>the</t>
   </si>
   <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
@@ -133,100 +148,109 @@
     <t>special</t>
   </si>
   <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>join</t>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thanks</t>
   </si>
   <si>
     <t>safe</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>heroes</t>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>save</t>
   </si>
   <si>
     <t>won</t>
   </si>
   <si>
-    <t>fresh</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>help</t>
   </si>
   <si>
     <t>gt</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>hope</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>well</t>
+    <t>important</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>protect</t>
   </si>
   <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
     <t>increase</t>
   </si>
   <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>sure</t>
+    <t>your</t>
+  </si>
+  <si>
+    <t>you</t>
   </si>
   <si>
     <t>and</t>
   </si>
   <si>
-    <t>.</t>
+    <t>?</t>
+  </si>
+  <si>
+    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -584,7 +608,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q39"/>
+  <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -592,10 +616,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="J1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -674,7 +698,7 @@
         <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -703,13 +727,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8648648648648649</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C4">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D4">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -721,10 +745,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K4">
         <v>0.9696969696969697</v>
@@ -753,13 +777,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8620689655172413</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C5">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -774,16 +798,16 @@
         <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="K5">
-        <v>0.9583333333333334</v>
+        <v>0.9416666666666667</v>
       </c>
       <c r="L5">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="M5">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -795,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -803,13 +827,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8561643835616438</v>
+        <v>0.8648648648648649</v>
       </c>
       <c r="C6">
-        <v>250</v>
+        <v>32</v>
       </c>
       <c r="D6">
-        <v>250</v>
+        <v>32</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -821,19 +845,19 @@
         <v>0</v>
       </c>
       <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="K6">
-        <v>0.9491525423728814</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L6">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M6">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -845,7 +869,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -853,13 +877,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8333333333333334</v>
+        <v>0.863013698630137</v>
       </c>
       <c r="C7">
-        <v>30</v>
+        <v>252</v>
       </c>
       <c r="D7">
-        <v>30</v>
+        <v>252</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -871,10 +895,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K7">
         <v>0.9166666666666666</v>
@@ -903,13 +927,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7941176470588235</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="C8">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D8">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -921,19 +945,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8">
+        <v>0.9069767441860465</v>
+      </c>
+      <c r="L8">
         <v>39</v>
       </c>
-      <c r="K8">
-        <v>0.8928571428571429</v>
-      </c>
-      <c r="L8">
-        <v>100</v>
-      </c>
       <c r="M8">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -945,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -953,7 +977,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.75</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C9">
         <v>30</v>
@@ -971,19 +995,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="K9">
-        <v>0.8903394255874674</v>
+        <v>0.8981723237597912</v>
       </c>
       <c r="L9">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="M9">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -995,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1003,13 +1027,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6937984496124031</v>
+        <v>0.7435897435897436</v>
       </c>
       <c r="C10">
-        <v>358</v>
+        <v>29</v>
       </c>
       <c r="D10">
-        <v>358</v>
+        <v>29</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1021,19 +1045,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>158</v>
+        <v>10</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="K10">
-        <v>0.8837209302325582</v>
+        <v>0.8828125</v>
       </c>
       <c r="L10">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="M10">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1045,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1053,13 +1077,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6878306878306878</v>
+        <v>0.725</v>
       </c>
       <c r="C11">
-        <v>130</v>
+        <v>29</v>
       </c>
       <c r="D11">
-        <v>130</v>
+        <v>29</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1071,19 +1095,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="K11">
-        <v>0.8732394366197183</v>
+        <v>0.8773584905660378</v>
       </c>
       <c r="L11">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="M11">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1095,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1103,13 +1127,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6862745098039216</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C12">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D12">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1121,19 +1145,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="K12">
-        <v>0.86875</v>
+        <v>0.875</v>
       </c>
       <c r="L12">
-        <v>139</v>
+        <v>98</v>
       </c>
       <c r="M12">
-        <v>139</v>
+        <v>98</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1145,7 +1169,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1153,13 +1177,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6610169491525424</v>
+        <v>0.6957364341085271</v>
       </c>
       <c r="C13">
-        <v>39</v>
+        <v>359</v>
       </c>
       <c r="D13">
-        <v>39</v>
+        <v>359</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1171,19 +1195,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>20</v>
+        <v>157</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="K13">
-        <v>0.8679245283018868</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L13">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="M13">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1195,7 +1219,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1203,13 +1227,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6410256410256411</v>
+        <v>0.6825396825396826</v>
       </c>
       <c r="C14">
-        <v>25</v>
+        <v>129</v>
       </c>
       <c r="D14">
-        <v>25</v>
+        <v>129</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1221,19 +1245,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="K14">
-        <v>0.8620689655172413</v>
+        <v>0.85625</v>
       </c>
       <c r="L14">
-        <v>50</v>
+        <v>137</v>
       </c>
       <c r="M14">
-        <v>50</v>
+        <v>137</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1245,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1253,13 +1277,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6308724832214765</v>
+        <v>0.6440677966101694</v>
       </c>
       <c r="C15">
-        <v>94</v>
+        <v>38</v>
       </c>
       <c r="D15">
-        <v>94</v>
+        <v>38</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1271,19 +1295,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="K15">
-        <v>0.8515625</v>
+        <v>0.851063829787234</v>
       </c>
       <c r="L15">
-        <v>109</v>
+        <v>40</v>
       </c>
       <c r="M15">
-        <v>109</v>
+        <v>40</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1295,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1303,13 +1327,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6055555555555555</v>
+        <v>0.5973154362416108</v>
       </c>
       <c r="C16">
-        <v>218</v>
+        <v>89</v>
       </c>
       <c r="D16">
-        <v>218</v>
+        <v>89</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1321,19 +1345,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>142</v>
+        <v>60</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="K16">
-        <v>0.8414634146341463</v>
+        <v>0.8448275862068966</v>
       </c>
       <c r="L16">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="M16">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1345,7 +1369,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1353,13 +1377,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5818181818181818</v>
+        <v>0.5805555555555556</v>
       </c>
       <c r="C17">
-        <v>32</v>
+        <v>209</v>
       </c>
       <c r="D17">
-        <v>32</v>
+        <v>209</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1371,19 +1395,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>23</v>
+        <v>151</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="K17">
-        <v>0.8297872340425532</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L17">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="M17">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1395,7 +1419,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1403,7 +1427,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5178571428571429</v>
+        <v>0.5272727272727272</v>
       </c>
       <c r="C18">
         <v>29</v>
@@ -1421,19 +1445,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="K18">
-        <v>0.8205128205128205</v>
+        <v>0.8380281690140845</v>
       </c>
       <c r="L18">
-        <v>32</v>
+        <v>119</v>
       </c>
       <c r="M18">
-        <v>32</v>
+        <v>119</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1445,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1453,13 +1477,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.48</v>
+        <v>0.509090909090909</v>
       </c>
       <c r="C19">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D19">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1471,19 +1495,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="K19">
-        <v>0.8125</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L19">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M19">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1495,7 +1519,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1503,13 +1527,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4333333333333333</v>
+        <v>0.4933333333333333</v>
       </c>
       <c r="C20">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D20">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1521,19 +1545,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="K20">
-        <v>0.8</v>
+        <v>0.7714285714285715</v>
       </c>
       <c r="L20">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="M20">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1553,7 +1577,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3376623376623377</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="C21">
         <v>26</v>
@@ -1571,19 +1595,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="K21">
-        <v>0.7936507936507936</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L21">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="M21">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1595,7 +1619,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1603,13 +1627,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3333333333333333</v>
+        <v>0.4</v>
       </c>
       <c r="C22">
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="D22">
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1621,19 +1645,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>168</v>
+        <v>48</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="K22">
-        <v>0.75</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="L22">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="M22">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1645,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1653,13 +1677,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.2546916890080429</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="C23">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="D23">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1671,19 +1695,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>278</v>
+        <v>57</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="K23">
-        <v>0.7428571428571429</v>
+        <v>0.7323529411764705</v>
       </c>
       <c r="L23">
-        <v>26</v>
+        <v>249</v>
       </c>
       <c r="M23">
-        <v>26</v>
+        <v>249</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1695,7 +1719,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>9</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1703,7 +1727,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.08666666666666667</v>
+        <v>0.3376623376623377</v>
       </c>
       <c r="C24">
         <v>26</v>
@@ -1721,19 +1745,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>274</v>
+        <v>51</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="K24">
-        <v>0.7352941176470589</v>
+        <v>0.7254237288135593</v>
       </c>
       <c r="L24">
-        <v>250</v>
+        <v>214</v>
       </c>
       <c r="M24">
-        <v>250</v>
+        <v>214</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1745,7 +1769,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1753,37 +1777,37 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.01136363636363636</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C25">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="D25">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="E25">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>2349</v>
+        <v>168</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="K25">
-        <v>0.7254901960784313</v>
+        <v>0.725</v>
       </c>
       <c r="L25">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="M25">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1795,7 +1819,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1803,37 +1827,37 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.009026434558349452</v>
+        <v>0.2412868632707775</v>
       </c>
       <c r="C26">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="D26">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="E26">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>3074</v>
+        <v>283</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="K26">
-        <v>0.72</v>
+        <v>0.7</v>
       </c>
       <c r="L26">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M26">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1845,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1853,167 +1877,287 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.005444293214077387</v>
+        <v>0.1233333333333333</v>
       </c>
       <c r="C27">
+        <v>37</v>
+      </c>
+      <c r="D27">
+        <v>37</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>263</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K27">
+        <v>0.6914893617021277</v>
+      </c>
+      <c r="L27">
+        <v>65</v>
+      </c>
+      <c r="M27">
+        <v>65</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28">
+        <v>0.01266357112705783</v>
+      </c>
+      <c r="C28">
+        <v>30</v>
+      </c>
+      <c r="D28">
+        <v>40</v>
+      </c>
+      <c r="E28">
+        <v>0.25</v>
+      </c>
+      <c r="F28">
+        <v>0.75</v>
+      </c>
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>2339</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K28">
+        <v>0.6861924686192469</v>
+      </c>
+      <c r="L28">
+        <v>164</v>
+      </c>
+      <c r="M28">
+        <v>164</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29">
+        <v>0.009674298613350531</v>
+      </c>
+      <c r="C29">
+        <v>30</v>
+      </c>
+      <c r="D29">
+        <v>36</v>
+      </c>
+      <c r="E29">
+        <v>0.17</v>
+      </c>
+      <c r="F29">
+        <v>0.83</v>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>3071</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K29">
+        <v>0.6853932584269663</v>
+      </c>
+      <c r="L29">
+        <v>61</v>
+      </c>
+      <c r="M29">
+        <v>61</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
         <v>28</v>
       </c>
-      <c r="D27">
-        <v>50</v>
-      </c>
-      <c r="E27">
-        <v>0.44</v>
-      </c>
-      <c r="F27">
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30">
+        <v>0.006627680311890838</v>
+      </c>
+      <c r="C30">
+        <v>34</v>
+      </c>
+      <c r="D30">
+        <v>69</v>
+      </c>
+      <c r="E30">
+        <v>0.51</v>
+      </c>
+      <c r="F30">
+        <v>0.49</v>
+      </c>
+      <c r="G30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>5096</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K30">
+        <v>0.6461538461538462</v>
+      </c>
+      <c r="L30">
+        <v>42</v>
+      </c>
+      <c r="M30">
+        <v>42</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31">
+        <v>0.006243705941591138</v>
+      </c>
+      <c r="C31">
+        <v>31</v>
+      </c>
+      <c r="D31">
+        <v>62</v>
+      </c>
+      <c r="E31">
+        <v>0.5</v>
+      </c>
+      <c r="F31">
+        <v>0.5</v>
+      </c>
+      <c r="G31" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>4934</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K31">
+        <v>0.6274509803921569</v>
+      </c>
+      <c r="L31">
+        <v>32</v>
+      </c>
+      <c r="M31">
+        <v>32</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32">
+        <v>0.005819366852886406</v>
+      </c>
+      <c r="C32">
+        <v>25</v>
+      </c>
+      <c r="D32">
+        <v>57</v>
+      </c>
+      <c r="E32">
         <v>0.5600000000000001</v>
       </c>
-      <c r="G27" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27">
-        <v>5115</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K27">
-        <v>0.7108843537414966</v>
-      </c>
-      <c r="L27">
-        <v>209</v>
-      </c>
-      <c r="M27">
-        <v>210</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q27">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="J28" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K28">
-        <v>0.7021276595744681</v>
-      </c>
-      <c r="L28">
-        <v>66</v>
-      </c>
-      <c r="M28">
-        <v>66</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
+      <c r="F32">
+        <v>0.4399999999999999</v>
+      </c>
+      <c r="G32" t="b">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>4271</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K32">
+        <v>0.6222222222222222</v>
+      </c>
+      <c r="L32">
         <v>28</v>
       </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="J29" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K29">
-        <v>0.7</v>
-      </c>
-      <c r="L29">
-        <v>49</v>
-      </c>
-      <c r="M29">
-        <v>49</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="J30" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K30">
-        <v>0.6861924686192469</v>
-      </c>
-      <c r="L30">
-        <v>164</v>
-      </c>
-      <c r="M30">
-        <v>164</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="J31" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K31">
-        <v>0.6615384615384615</v>
-      </c>
-      <c r="L31">
-        <v>43</v>
-      </c>
-      <c r="M31">
-        <v>43</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="J32" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K32">
-        <v>0.6404494382022472</v>
-      </c>
-      <c r="L32">
-        <v>57</v>
-      </c>
       <c r="M32">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2025,21 +2169,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="K33">
-        <v>0.6222222222222222</v>
+        <v>0.6142857142857143</v>
       </c>
       <c r="L33">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="M33">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2051,12 +2195,12 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="K34">
         <v>0.5616438356164384</v>
@@ -2082,16 +2226,16 @@
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="K35">
-        <v>0.5512820512820513</v>
+        <v>0.5409836065573771</v>
       </c>
       <c r="L35">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="M35">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2103,15 +2247,15 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="K36">
-        <v>0.5254237288135594</v>
+        <v>0.484375</v>
       </c>
       <c r="L36">
         <v>31</v>
@@ -2129,21 +2273,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="K37">
-        <v>0.515625</v>
+        <v>0.3974358974358974</v>
       </c>
       <c r="L37">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M37">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2155,59 +2299,215 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="K38">
-        <v>0.00975975975975976</v>
+        <v>0.04570383912248629</v>
       </c>
       <c r="L38">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M38">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="N38">
-        <v>0.74</v>
+        <v>1</v>
       </c>
       <c r="O38">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="P38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>2638</v>
+        <v>522</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="K39">
-        <v>0.0054249547920434</v>
+        <v>0.04424040066777963</v>
       </c>
       <c r="L39">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="M39">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="N39">
-        <v>0.59</v>
+        <v>0.96</v>
       </c>
       <c r="O39">
-        <v>0.41</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P39" t="b">
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>4950</v>
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K40">
+        <v>0.01240135287485907</v>
+      </c>
+      <c r="L40">
+        <v>33</v>
+      </c>
+      <c r="M40">
+        <v>45</v>
+      </c>
+      <c r="N40">
+        <v>0.73</v>
+      </c>
+      <c r="O40">
+        <v>0.27</v>
+      </c>
+      <c r="P40" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>2628</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K41">
+        <v>0.01213389121338912</v>
+      </c>
+      <c r="L41">
+        <v>29</v>
+      </c>
+      <c r="M41">
+        <v>33</v>
+      </c>
+      <c r="N41">
+        <v>0.88</v>
+      </c>
+      <c r="O41">
+        <v>0.12</v>
+      </c>
+      <c r="P41" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>2361</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K42">
+        <v>0.007834534628643058</v>
+      </c>
+      <c r="L42">
+        <v>25</v>
+      </c>
+      <c r="M42">
+        <v>35</v>
+      </c>
+      <c r="N42">
+        <v>0.71</v>
+      </c>
+      <c r="O42">
+        <v>0.29</v>
+      </c>
+      <c r="P42" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>3166</v>
+      </c>
+    </row>
+    <row r="43" spans="10:17">
+      <c r="J43" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K43">
+        <v>0.007436672089240065</v>
+      </c>
+      <c r="L43">
+        <v>32</v>
+      </c>
+      <c r="M43">
+        <v>57</v>
+      </c>
+      <c r="N43">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="O43">
+        <v>0.4399999999999999</v>
+      </c>
+      <c r="P43" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q43">
+        <v>4271</v>
+      </c>
+    </row>
+    <row r="44" spans="10:17">
+      <c r="J44" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K44">
+        <v>0.006821282401091405</v>
+      </c>
+      <c r="L44">
+        <v>35</v>
+      </c>
+      <c r="M44">
+        <v>69</v>
+      </c>
+      <c r="N44">
+        <v>0.51</v>
+      </c>
+      <c r="O44">
+        <v>0.49</v>
+      </c>
+      <c r="P44" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q44">
+        <v>5096</v>
+      </c>
+    </row>
+    <row r="45" spans="10:17">
+      <c r="J45" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K45">
+        <v>0.006243705941591138</v>
+      </c>
+      <c r="L45">
+        <v>31</v>
+      </c>
+      <c r="M45">
+        <v>62</v>
+      </c>
+      <c r="N45">
+        <v>0.5</v>
+      </c>
+      <c r="O45">
+        <v>0.5</v>
+      </c>
+      <c r="P45" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q45">
+        <v>4934</v>
       </c>
     </row>
   </sheetData>
